--- a/ссылки.xlsx
+++ b/ссылки.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Портал самообслуживания</t>
   </si>
@@ -268,6 +268,39 @@
   </si>
   <si>
     <t>ИИ для кодеров</t>
+  </si>
+  <si>
+    <t>Русаков пароль ст</t>
+  </si>
+  <si>
+    <t>6a1387</t>
+  </si>
+  <si>
+    <t>Aston td</t>
+  </si>
+  <si>
+    <t>https://docx.google.com/document/d/1582IYuD7FSirUBb1x6rhfrlaeSc6b1nP/edit</t>
+  </si>
+  <si>
+    <t>https://artisthunt.ru/vacancy_success</t>
+  </si>
+  <si>
+    <t>artisthunt</t>
+  </si>
+  <si>
+    <t>leetcode.com – задачи уровня easy</t>
+  </si>
+  <si>
+    <t>codewars.com – задачи уровня 6-7 kyu</t>
+  </si>
+  <si>
+    <t>easyoffer.ru – технические вопросы на собеседовании</t>
+  </si>
+  <si>
+    <t>https://appmaster.io/ru/blog/stat-razrabotchikom-kotlin</t>
+  </si>
+  <si>
+    <t>play.kotlinlang.org/koans</t>
   </si>
 </sst>
 </file>
@@ -644,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,11 +856,31 @@
       <c r="G10" t="s">
         <v>23</v>
       </c>
+      <c r="R10" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="R12" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -836,6 +889,9 @@
       <c r="B13" t="s">
         <v>44</v>
       </c>
+      <c r="S13" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -844,6 +900,9 @@
       <c r="B14" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="S14" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -858,6 +917,9 @@
       <c r="G15" t="s">
         <v>31</v>
       </c>
+      <c r="S15" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -870,7 +932,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -880,8 +942,11 @@
       <c r="G17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S17" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -891,18 +956,21 @@
       <c r="G18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -913,7 +981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -924,32 +992,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E28" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>63</v>
       </c>
@@ -968,7 +1036,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R2:R9">
+  <conditionalFormatting sqref="R2:R11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1011,8 +1079,12 @@
     <hyperlink ref="B21" r:id="rId20"/>
     <hyperlink ref="B22" r:id="rId21"/>
     <hyperlink ref="S9" r:id="rId22"/>
+    <hyperlink ref="S13" r:id="rId23" display="https://leetcode.com/"/>
+    <hyperlink ref="S14" r:id="rId24" display="https://www.codewars.com/"/>
+    <hyperlink ref="S15" r:id="rId25" display="https://easyoffer.ru/"/>
+    <hyperlink ref="S17" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
--- a/ссылки.xlsx
+++ b/ссылки.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Памятка TC" sheetId="2" r:id="rId2"/>
+    <sheet name="Ход выполнения ТЗ" sheetId="3" r:id="rId3"/>
+    <sheet name="Поисковые запросы" sheetId="4" r:id="rId4"/>
+    <sheet name="окружение" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="192">
   <si>
     <t>Портал самообслуживания</t>
   </si>
@@ -222,12 +226,6 @@
     <t>изучение базы языков</t>
   </si>
   <si>
-    <t>Мой</t>
-  </si>
-  <si>
-    <t>tp00053522</t>
-  </si>
-  <si>
     <t>https://cheatography.com/programming/</t>
   </si>
   <si>
@@ -301,6 +299,316 @@
   </si>
   <si>
     <t>play.kotlinlang.org/koans</t>
+  </si>
+  <si>
+    <t>43082-0035511-5U</t>
+  </si>
+  <si>
+    <t>0010-0000000</t>
+  </si>
+  <si>
+    <t>43089.00400</t>
+  </si>
+  <si>
+    <t>Номер Извещения</t>
+  </si>
+  <si>
+    <t>bl_rev_k7_NotificationID</t>
+  </si>
+  <si>
+    <t>Дочерние ревизии элемента</t>
+  </si>
+  <si>
+    <t>ps_children</t>
+  </si>
+  <si>
+    <t>Уровень</t>
+  </si>
+  <si>
+    <t>bl_level_starting_0</t>
+  </si>
+  <si>
+    <t>K7_dEAssemblyRevision</t>
+  </si>
+  <si>
+    <t>_FindAssemblyUnit</t>
+  </si>
+  <si>
+    <t>Поиск Сборочных едениц</t>
+  </si>
+  <si>
+    <t>Дочерний элемент</t>
+  </si>
+  <si>
+    <t>bl_child_item</t>
+  </si>
+  <si>
+    <t>Тип объекта</t>
+  </si>
+  <si>
+    <t>fnd0bl_line_object_type</t>
+  </si>
+  <si>
+    <t>все</t>
+  </si>
+  <si>
+    <t>тип объекта</t>
+  </si>
+  <si>
+    <t>все нулевые</t>
+  </si>
+  <si>
+    <t>K7_iNotific</t>
+  </si>
+  <si>
+    <t>Извещение</t>
+  </si>
+  <si>
+    <t>_FindNotifications</t>
+  </si>
+  <si>
+    <t>com.kamaz.but_uploading_comments</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>43082.00319</t>
+  </si>
+  <si>
+    <t>Глобальный (замечание)</t>
+  </si>
+  <si>
+    <t>0011-0000000/21</t>
+  </si>
+  <si>
+    <t>редактируемая</t>
+  </si>
+  <si>
+    <t>kvc_X_56__58101_1003350_00_01_00</t>
+  </si>
+  <si>
+    <t>\\Ntc-nk-32\тгцтп</t>
+  </si>
+  <si>
+    <t>(TCComponent).whereReferenced();</t>
+  </si>
+  <si>
+    <t>Анализ влияния</t>
+  </si>
+  <si>
+    <t>ТЗ: №9</t>
+  </si>
+  <si>
+    <t>Поиск Извещений</t>
+  </si>
+  <si>
+    <t>_FindPurchased</t>
+  </si>
+  <si>
+    <t>Поиск Покупных</t>
+  </si>
+  <si>
+    <t>K7_CNonMetallics</t>
+  </si>
+  <si>
+    <t>_FindDataMaterial</t>
+  </si>
+  <si>
+    <t>Поиск данных материала по коду ИЛИ названию</t>
+  </si>
+  <si>
+    <t>TCComponentQuery query = (TCComponentQuery) tccomponenttcquerytype.find("_FindDataMaterial"); natificationObject = query.execute(new String[] { "code", "name" }, new String[] { code, name });</t>
+  </si>
+  <si>
+    <t>ТЗ: №10</t>
+  </si>
+  <si>
+    <t>kvc54901-0000004-92_2_58101</t>
+  </si>
+  <si>
+    <t>K7_iTechNotific</t>
+  </si>
+  <si>
+    <t>_FindTechNotific</t>
+  </si>
+  <si>
+    <t>Fix_Plagins</t>
+  </si>
+  <si>
+    <t>\\VS178.kamaz.org\TC12</t>
+  </si>
+  <si>
+    <t>!fix_tc12.bat</t>
+  </si>
+  <si>
+    <t>Получение ревизии объекта</t>
+  </si>
+  <si>
+    <t>TCComponent[] revisions =  tcObject.getReferenceListProperty("revision_list");</t>
+  </si>
+  <si>
+    <t> itemRev.getClassificationAttributes().get("Код профессии");  </t>
+  </si>
+  <si>
+    <t>Получить свойство классификатора по «Код профессии»:</t>
+  </si>
+  <si>
+    <t>Map&lt;String, String&gt; klass = ((TCComponentItemRevision)revisions[0]).getClassificationAttributes();</t>
+  </si>
+  <si>
+    <t>или так если из TCComponent</t>
+  </si>
+  <si>
+    <t>TCComponentICO[] classificationS = revisions[0].getClassificationObjects();
+      for (TCComponentICO classificationNext: classificationS) {
+       ICSProperty[] properties_classificationNext = classificationNext.getICSProperties(true);
+       for (ICSProperty propertyClassif: properties_classificationNext) {
+        int propID = propertyClassif.getId();
+        String propValue = propertyClassif.getValue();
+        if (propID==1020846) {
+         standart = propValue;
+        }
+       }
+      }</t>
+  </si>
+  <si>
+    <t>Получить свойство классификатора по всем страницам</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>for2</t>
+  </si>
+  <si>
+    <t>emp</t>
+  </si>
+  <si>
+    <t>gdm</t>
+  </si>
+  <si>
+    <t>Intellig</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>For name</t>
+  </si>
+  <si>
+    <t>MyFiles\Trainings\T_PROJECT\_Intellig_Idea\GenerateDataMetods</t>
+  </si>
+  <si>
+    <t>MyFiles\Trainings\T_PROJECT\_AndroidStudio\Songs_History</t>
+  </si>
+  <si>
+    <t>Среда Р</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Папка</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>sem</t>
+  </si>
+  <si>
+    <t>sem2</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>MyFiles\Trainings\KlientCPU</t>
+  </si>
+  <si>
+    <t>dagget</t>
+  </si>
+  <si>
+    <t>MyFiles\Trainings\T_PROJECT\Dagget2_Project\Dagget2_Trainner_pull</t>
+  </si>
+  <si>
+    <t>MyFiles\Trainings\T_PROJECT\Папка_С_Пустыми_Файлами</t>
+  </si>
+  <si>
+    <t>MyFiles\Trainings\T_PROJECT\For_Chorus_Kotlin\for_chorus_kotlin</t>
+  </si>
+  <si>
+    <t>MyFiles\Trainings\T_PROJECT\For_Chorus_Kotlin\for_chorus_kotlin2</t>
+  </si>
+  <si>
+    <t>GRADLE_USER_HOME</t>
+  </si>
+  <si>
+    <t>D:\MyFiles\Trainings\0_Gradle\Gradle_Packages</t>
+  </si>
+  <si>
+    <t>kot</t>
+  </si>
+  <si>
+    <t>MyFiles\Trainings\T_PROJECT\ProjectKotlin</t>
+  </si>
+  <si>
+    <t>MyFiles\Trainings\T_PROJECT\The_Planner_Semen</t>
+  </si>
+  <si>
+    <t>MyFiles\Trainings\T_PROJECT\The_Planner_Semen_User2</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>D:\MyFiles\Trainings\T_PROJECT\MyTests</t>
+  </si>
+  <si>
+    <t>Команды</t>
+  </si>
+  <si>
+    <t>REG delete "HKCU\Environment" /F /V "имя_переменной"</t>
+  </si>
+  <si>
+    <t>Назначение</t>
+  </si>
+  <si>
+    <t>Удаление переменной окружения</t>
+  </si>
+  <si>
+    <t>setx name path</t>
+  </si>
+  <si>
+    <t>создание переменной  (потом надо перезапустить cmd)</t>
+  </si>
+  <si>
+    <t>cd %name%</t>
+  </si>
+  <si>
+    <t>переход по пути записанном в переменной</t>
+  </si>
+  <si>
+    <t>Для Android</t>
+  </si>
+  <si>
+    <t>Name запроса</t>
+  </si>
+  <si>
+    <t>Для объекта</t>
+  </si>
+  <si>
+    <t>№ ТЗ</t>
+  </si>
+  <si>
+    <t>Новые команды</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>создание поискового запроса</t>
   </si>
 </sst>
 </file>
@@ -310,7 +618,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +659,20 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -360,7 +682,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -368,12 +690,201 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -394,6 +905,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -675,17 +1220,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="47.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="18" max="18" width="23.140625" customWidth="1"/>
@@ -806,10 +1352,10 @@
         <v>20</v>
       </c>
       <c r="R7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -823,10 +1369,10 @@
         <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -840,10 +1386,10 @@
         <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -857,18 +1403,18 @@
         <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -876,10 +1422,10 @@
         <v>43</v>
       </c>
       <c r="R12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -890,7 +1436,7 @@
         <v>44</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -900,8 +1446,11 @@
       <c r="B14" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="C14" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="S14" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -918,7 +1467,7 @@
         <v>31</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -934,30 +1483,30 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
         <v>34</v>
       </c>
       <c r="S18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -972,10 +1521,10 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
         <v>28</v>
@@ -983,16 +1532,25 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
       <c r="G23" t="s">
         <v>30</v>
       </c>
@@ -1012,6 +1570,14 @@
         <v>42</v>
       </c>
     </row>
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>62</v>
@@ -1022,21 +1588,147 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>67</v>
-      </c>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>68</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="R2:R11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1044,14 +1736,6 @@
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -1083,8 +1767,402 @@
     <hyperlink ref="S14" r:id="rId24" display="https://www.codewars.com/"/>
     <hyperlink ref="S15" r:id="rId25" display="https://easyoffer.ru/"/>
     <hyperlink ref="S17" r:id="rId26"/>
+    <hyperlink ref="C14" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" customWidth="1"/>
+    <col min="7" max="8" width="53.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ссылки.xlsx
+++ b/ссылки.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Ход выполнения ТЗ" sheetId="3" r:id="rId3"/>
     <sheet name="Поисковые запросы" sheetId="4" r:id="rId4"/>
     <sheet name="окружение" sheetId="5" r:id="rId5"/>
+    <sheet name="Тестовое" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="198">
   <si>
     <t>Портал самообслуживания</t>
   </si>
@@ -609,6 +610,24 @@
   </si>
   <si>
     <t>создание поискового запроса</t>
+  </si>
+  <si>
+    <t>Ссылка на форму:</t>
+  </si>
+  <si>
+    <t>https://forms.yandex.ru/cloud/68480751e010db1270c2c488/</t>
+  </si>
+  <si>
+    <t>Ссылка на диск с заданием:</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/d/eUj9DhM36f9RWw</t>
+  </si>
+  <si>
+    <t>workmate</t>
+  </si>
+  <si>
+    <t>MyFiles\TZ_other\TZ_Workmate\CurrencyConverter</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
@@ -1901,7 +1920,7 @@
   <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H16"/>
+  <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,8 +2180,59 @@
         <v>157</v>
       </c>
     </row>
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/ссылки.xlsx
+++ b/ссылки.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Поисковые запросы" sheetId="4" r:id="rId4"/>
     <sheet name="окружение" sheetId="5" r:id="rId5"/>
     <sheet name="Тестовое" sheetId="6" r:id="rId6"/>
+    <sheet name="Ссылки" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="221">
   <si>
     <t>Портал самообслуживания</t>
   </si>
@@ -629,6 +630,97 @@
   <si>
     <t>MyFiles\TZ_other\TZ_Workmate\CurrencyConverter</t>
   </si>
+  <si>
+    <t>ТЗ: № 11</t>
+  </si>
+  <si>
+    <t>Состояние bat 18.08.2025</t>
+  </si>
+  <si>
+    <t>"@echo off
+set JRE_HOME=C:\Progra~1\Java\jre1.8.0_202
+set JAVA_HOME=C:\Progra~1\Java\jre1.8.0_202
+set JAVAW_PATH=%JAVA_HOME%\bin\javaw
+set TC_ROOT=C:\Siemens\Tc\TC12
+set CLASSPATH=%TC_ROOT%\portal
+set FMS_HOME=%TC_ROOT%\tccs
+set PATH=%PATH%;%FMS_HOME%\bin;%FMS_HOME%\lib;%CLASSPATH%
+set ECLIPSE_HOME=D:\eclipse\eclipse
+set ECLIPSE_PATH=%ECLIPSE_HOME%\eclipse.exe
+set ECLIPSE_WORKSPACE=%ECLIPSE_HOME%\workspaces\workspace-production
+start "Eclipse PRODUCTION" %ECLIPSE_PATH% -vm %JAVAW_PATH% -nl ru_RU -clean -refresh -data %ECLIPSE_WORKSPACE%"</t>
+  </si>
+  <si>
+    <t>"set TC_ROOT=C:\Siemens\Tc\TC12
+set FMS_HOME=%TC_ROOT%\tccs
+set JAVA_HOME=C:\Progra~1\Java\jre1.8.0_202
+set JRE_HOME=C:\Progra~1\Java\jre1.8.0_202
+set CLASSPATH=%TC_ROOT%\portal
+set PATH=%FMS_HOME%\bin;%FMS_HOME%\lib;%CLASSPATH%;%PATH%
+start "" D:\eclipse\eclipse\eclipse.exe -vm %JAVA_HOME%\bin\javaw -clean"</t>
+  </si>
+  <si>
+    <t>"-Xms512m
+-Xmx1024m
+-Dautologin.user=Guzenko_EA
+-Dautologin.pass=25588552EVG777Pro6"</t>
+  </si>
+  <si>
+    <t>"'1687309;  Техническое задание (доп. информация); Мое "081621" 1701248; btnCreatePDFFileAction(...) - сохранение pdf файла "</t>
+  </si>
+  <si>
+    <t>https://chelny-dieta.ru/googlenko/list_hour_stAll.php</t>
+  </si>
+  <si>
+    <t>https://chelny-dieta.ru/googlenko/testRequest.php</t>
+  </si>
+  <si>
+    <t>https://chelny-dieta.ru/googlenko/InTheSky/Songs.php</t>
+  </si>
+  <si>
+    <t>Портал Роста</t>
+  </si>
+  <si>
+    <t>http://websoft.kamaz.org</t>
+  </si>
+  <si>
+    <t>Ваш логин - 130544, пароль -  kamaz</t>
+  </si>
+  <si>
+    <t>C:\Users\Guzenko_EA\FCCCache</t>
+  </si>
+  <si>
+    <t>\\doc1318\Инвентаризация</t>
+  </si>
+  <si>
+    <t>https://websoft.kamaz.org/view_doc.html?mode=default</t>
+  </si>
+  <si>
+    <t>MEPrPlant</t>
+  </si>
+  <si>
+    <t>Менеджер структуры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCComponentBOPWindowType bomWindowType = (TCComponentBOPWindowType) session.getTypeComponent("BOMWindow");
+TCComponentBOPWindow bomWindow = bomWindowType.createBOPWindow(revisionRule); 
+bomWindow .setWindowTopLine(TCComponentItem item, TCComponentItemRevision rev, TCComponent bv, TCComponent bvr) </t>
+  </si>
+  <si>
+    <t>Отображение/Заполнение -  заголовки</t>
+  </si>
+  <si>
+    <t>в классе ru.kamaz.bbp.forms.rigging_sow_revision.K7RiggingSOWRevisionMaster</t>
+  </si>
+  <si>
+    <t>https://www.yandex.ru/video/preview/10583192500080204491</t>
+  </si>
+  <si>
+    <t>Spring Boot для начинающих</t>
+  </si>
+  <si>
+    <t>https://chelny-dieta.ru/googlenko/doc_web/my_docs.php</t>
+  </si>
 </sst>
 </file>
 
@@ -637,12 +729,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -692,6 +792,15 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -701,7 +810,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -898,14 +1007,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -914,20 +1034,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -942,22 +1062,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1241,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,6 +1706,17 @@
       </c>
       <c r="G23" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -1787,18 +1932,19 @@
     <hyperlink ref="S15" r:id="rId25" display="https://easyoffer.ru/"/>
     <hyperlink ref="S17" r:id="rId26"/>
     <hyperlink ref="C14" r:id="rId27"/>
+    <hyperlink ref="B25" r:id="rId28" display="http://websoft.kamaz.org/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C7"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,6 +2002,22 @@
         <v>146</v>
       </c>
     </row>
+    <row r="8" spans="2:3" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1864,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D4"/>
+  <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,6 +2071,14 @@
       </c>
       <c r="D4" s="17"/>
     </row>
+    <row r="5" spans="2:4" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1917,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D6"/>
+  <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,6 +2150,14 @@
         <v>134</v>
       </c>
     </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1987,10 +2165,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H17"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,6 +2367,22 @@
       </c>
       <c r="D17" s="17" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="C23" s="33" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2235,4 +2429,73 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A10" r:id="rId3"/>
+    <hyperlink ref="A12" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>